--- a/documents/Results_for_100000rows_clean_dataset.xlsx
+++ b/documents/Results_for_100000rows_clean_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61F304-6D76-1046-BEFF-91BB258C9B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDE98A-931C-564B-9D35-B8DB8E2F7DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="10220" windowWidth="28040" windowHeight="17440" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
   <si>
-    <t>MySQL version 5.1.41</t>
-  </si>
-  <si>
     <t>Smallest number in resultset</t>
   </si>
   <si>
@@ -71,15 +68,9 @@
     <t>Index 7</t>
   </si>
   <si>
-    <t>MariaDB version 10.4.11-MariaDB</t>
-  </si>
-  <si>
     <t>Average time for query</t>
   </si>
   <si>
-    <t>Neo4J community 3.5.14</t>
-  </si>
-  <si>
     <t>Long query, work price</t>
   </si>
   <si>
@@ -90,6 +81,15 @@
   </si>
   <si>
     <t>Recursive query, invoices related to invoice id 100000</t>
+  </si>
+  <si>
+    <t>MySQL 5.1.41</t>
+  </si>
+  <si>
+    <t>MariaDB 10.4.11</t>
+  </si>
+  <si>
+    <t>Neo4J 3.5.14</t>
   </si>
 </sst>
 </file>
@@ -444,39 +444,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>360</v>
@@ -484,13 +485,13 @@
       <c r="C5">
         <v>135</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>424</v>
@@ -498,13 +499,13 @@
       <c r="C6">
         <v>151</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>829</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>360</v>
@@ -512,13 +513,13 @@
       <c r="C8" s="1">
         <v>136</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>361</v>
@@ -526,13 +527,13 @@
       <c r="C9" s="1">
         <v>138</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>361</v>
@@ -540,13 +541,13 @@
       <c r="C10" s="1">
         <v>140</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>362</v>
@@ -554,13 +555,13 @@
       <c r="C11" s="1">
         <v>142</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>362</v>
@@ -568,13 +569,13 @@
       <c r="C12" s="1">
         <v>143</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>362</v>
@@ -582,13 +583,13 @@
       <c r="C13" s="1">
         <v>144</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>364</v>
@@ -596,13 +597,13 @@
       <c r="C14" s="1">
         <v>145</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>365</v>
@@ -610,13 +611,13 @@
       <c r="C15" s="1">
         <v>149</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>362</v>
@@ -624,18 +625,18 @@
       <c r="C17">
         <v>142</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>4765</v>
@@ -643,13 +644,13 @@
       <c r="C21">
         <v>1394</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>6396</v>
@@ -657,13 +658,13 @@
       <c r="C22">
         <v>2386</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>5226</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>4798</v>
@@ -671,13 +672,13 @@
       <c r="C24" s="1">
         <v>1398</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
         <v>3237</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>4800</v>
@@ -685,13 +686,13 @@
       <c r="C25" s="1">
         <v>1398</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="1">
         <v>3238</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>4820</v>
@@ -699,13 +700,13 @@
       <c r="C26" s="1">
         <v>1401</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="1">
         <v>3241</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>4839</v>
@@ -713,13 +714,13 @@
       <c r="C27" s="1">
         <v>1402</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="1">
         <v>3269</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>4983</v>
@@ -727,13 +728,13 @@
       <c r="C28" s="1">
         <v>1408</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="1">
         <v>3294</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>5032</v>
@@ -741,13 +742,13 @@
       <c r="C29" s="1">
         <v>1825</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
         <v>3367</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>5052</v>
@@ -755,13 +756,13 @@
       <c r="C30" s="1">
         <v>2229</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
         <v>3391</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>5065</v>
@@ -769,13 +770,13 @@
       <c r="C31" s="1">
         <v>2384</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
         <v>3578</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>4923</v>
@@ -783,18 +784,18 @@
       <c r="C33" s="1">
         <v>1680</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D33" s="1">
         <v>3326</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -802,13 +803,13 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>24</v>
@@ -816,13 +817,13 @@
       <c r="C38">
         <v>64</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -831,9 +832,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -841,27 +842,27 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -869,13 +870,13 @@
       <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="D44" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -883,13 +884,13 @@
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="D45" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -897,13 +898,13 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="D46" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -911,13 +912,13 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="D47" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -925,13 +926,13 @@
       <c r="C48" s="1">
         <v>7</v>
       </c>
-      <c r="E48" s="1">
+      <c r="D48" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -939,18 +940,18 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="D50" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>238743</v>
@@ -958,13 +959,13 @@
       <c r="C54">
         <v>4773</v>
       </c>
-      <c r="E54">
+      <c r="D54">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>260950</v>
@@ -972,13 +973,13 @@
       <c r="C55">
         <v>8201</v>
       </c>
-      <c r="E55">
+      <c r="D55">
         <v>51889</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
         <v>242400</v>
@@ -986,13 +987,13 @@
       <c r="C57" s="1">
         <v>4776</v>
       </c>
-      <c r="E57" s="1">
+      <c r="D57" s="1">
         <v>48587</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
         <v>243189</v>
@@ -1000,13 +1001,13 @@
       <c r="C58" s="1">
         <v>4778</v>
       </c>
-      <c r="E58" s="1">
+      <c r="D58" s="1">
         <v>48676</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1">
         <v>243308</v>
@@ -1014,13 +1015,13 @@
       <c r="C59" s="1">
         <v>4785</v>
       </c>
-      <c r="E59" s="1">
+      <c r="D59" s="1">
         <v>48678</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>243982</v>
@@ -1028,13 +1029,13 @@
       <c r="C60" s="1">
         <v>4788</v>
       </c>
-      <c r="E60" s="1">
+      <c r="D60" s="1">
         <v>48741</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1">
         <v>244965</v>
@@ -1042,13 +1043,13 @@
       <c r="C61" s="1">
         <v>4821</v>
       </c>
-      <c r="E61" s="1">
+      <c r="D61" s="1">
         <v>48762</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1">
         <v>246220</v>
@@ -1056,13 +1057,13 @@
       <c r="C62" s="1">
         <v>4824</v>
       </c>
-      <c r="E62" s="1">
+      <c r="D62" s="1">
         <v>48834</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1">
         <v>246379</v>
@@ -1070,13 +1071,13 @@
       <c r="C63" s="1">
         <v>4842</v>
       </c>
-      <c r="E63" s="1">
+      <c r="D63" s="1">
         <v>49331</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1">
         <v>252190</v>
@@ -1084,13 +1085,13 @@
       <c r="C64" s="1">
         <v>6158</v>
       </c>
-      <c r="E64" s="1">
+      <c r="D64" s="1">
         <v>49405</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>245329</v>
@@ -1098,18 +1099,18 @@
       <c r="C66" s="1">
         <v>4971</v>
       </c>
-      <c r="E66" s="1">
+      <c r="D66" s="1">
         <v>48876</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -1117,13 +1118,13 @@
       <c r="C70">
         <v>32</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>84</v>
@@ -1131,13 +1132,13 @@
       <c r="C71">
         <v>52</v>
       </c>
-      <c r="E71">
+      <c r="D71">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1">
         <v>66</v>
@@ -1145,13 +1146,13 @@
       <c r="C73" s="1">
         <v>32</v>
       </c>
-      <c r="E73" s="1">
+      <c r="D73" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1">
         <v>67</v>
@@ -1159,13 +1160,13 @@
       <c r="C74" s="1">
         <v>33</v>
       </c>
-      <c r="E74" s="1">
+      <c r="D74" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1">
         <v>67</v>
@@ -1173,13 +1174,13 @@
       <c r="C75" s="1">
         <v>34</v>
       </c>
-      <c r="E75" s="1">
+      <c r="D75" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <v>68</v>
@@ -1187,13 +1188,13 @@
       <c r="C76" s="1">
         <v>34</v>
       </c>
-      <c r="E76" s="1">
+      <c r="D76" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
         <v>68</v>
@@ -1201,13 +1202,13 @@
       <c r="C77" s="1">
         <v>34</v>
       </c>
-      <c r="E77" s="1">
+      <c r="D77" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1">
         <v>68</v>
@@ -1215,13 +1216,13 @@
       <c r="C78" s="1">
         <v>34</v>
       </c>
-      <c r="E78" s="1">
+      <c r="D78" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
         <v>70</v>
@@ -1229,13 +1230,13 @@
       <c r="C79" s="1">
         <v>36</v>
       </c>
-      <c r="E79" s="1">
+      <c r="D79" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1">
         <v>70</v>
@@ -1243,13 +1244,13 @@
       <c r="C80" s="1">
         <v>37</v>
       </c>
-      <c r="E80" s="1">
+      <c r="D80" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B82" s="1">
         <v>68</v>
@@ -1257,7 +1258,7 @@
       <c r="C82" s="1">
         <v>34</v>
       </c>
-      <c r="E82" s="1">
+      <c r="D82" s="1">
         <v>55</v>
       </c>
     </row>

--- a/documents/Results_for_100000rows_clean_dataset.xlsx
+++ b/documents/Results_for_100000rows_clean_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDE98A-931C-564B-9D35-B8DB8E2F7DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023DDEB-9699-3A4C-AA01-41F3D3041CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,43 +475,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>360</v>
+      </c>
+      <c r="C4">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <v>223</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
+        <v>424</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>360</v>
       </c>
-      <c r="C5">
-        <v>135</v>
-      </c>
-      <c r="D5">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>424</v>
-      </c>
-      <c r="C6">
-        <v>151</v>
-      </c>
-      <c r="D6">
-        <v>829</v>
+      <c r="C7" s="1">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C8" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>224</v>
@@ -519,13 +533,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>361</v>
       </c>
       <c r="C9" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1">
         <v>224</v>
@@ -533,105 +547,105 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C10" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>362</v>
       </c>
       <c r="C11" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>362</v>
       </c>
       <c r="C12" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C14" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>365</v>
-      </c>
-      <c r="C15" s="1">
-        <v>149</v>
-      </c>
-      <c r="D15" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B16">
         <v>362</v>
       </c>
-      <c r="C17">
+      <c r="C16">
         <v>142</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D16" s="1">
         <v>231</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,48 +807,51 @@
         <v>13</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
         <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>24</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>64</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -842,16 +859,13 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1">
-        <v>45</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -862,21 +876,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -890,7 +904,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -904,7 +918,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -913,280 +927,280 @@
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>238743</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>4773</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>260950</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>8201</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>51889</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1">
-        <v>242400</v>
-      </c>
-      <c r="C57" s="1">
-        <v>4776</v>
-      </c>
-      <c r="D57" s="1">
-        <v>48587</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1">
-        <v>243189</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4778</v>
-      </c>
-      <c r="D58" s="1">
-        <v>48676</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1">
-        <v>243308</v>
+        <v>242400</v>
       </c>
       <c r="C59" s="1">
-        <v>4785</v>
+        <v>4776</v>
       </c>
       <c r="D59" s="1">
-        <v>48678</v>
+        <v>48587</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
-        <v>243982</v>
+        <v>243189</v>
       </c>
       <c r="C60" s="1">
-        <v>4788</v>
+        <v>4778</v>
       </c>
       <c r="D60" s="1">
-        <v>48741</v>
+        <v>48676</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
-        <v>244965</v>
+        <v>243308</v>
       </c>
       <c r="C61" s="1">
-        <v>4821</v>
+        <v>4785</v>
       </c>
       <c r="D61" s="1">
-        <v>48762</v>
+        <v>48678</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>246220</v>
+        <v>243982</v>
       </c>
       <c r="C62" s="1">
-        <v>4824</v>
+        <v>4788</v>
       </c>
       <c r="D62" s="1">
-        <v>48834</v>
+        <v>48741</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>246379</v>
+        <v>244965</v>
       </c>
       <c r="C63" s="1">
-        <v>4842</v>
+        <v>4821</v>
       </c>
       <c r="D63" s="1">
-        <v>49331</v>
+        <v>48762</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1">
-        <v>252190</v>
+        <v>246220</v>
       </c>
       <c r="C64" s="1">
-        <v>6158</v>
+        <v>4824</v>
       </c>
       <c r="D64" s="1">
-        <v>49405</v>
+        <v>48834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <v>246379</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4842</v>
+      </c>
+      <c r="D65" s="1">
+        <v>49331</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66">
-        <v>245329</v>
+        <v>10</v>
+      </c>
+      <c r="B66" s="1">
+        <v>252190</v>
       </c>
       <c r="C66" s="1">
-        <v>4971</v>
+        <v>6158</v>
       </c>
       <c r="D66" s="1">
-        <v>48876</v>
+        <v>49405</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>245329</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4971</v>
+      </c>
+      <c r="D68" s="1">
+        <v>48876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B70">
+      <c r="B73">
         <v>66</v>
       </c>
-      <c r="C70">
+      <c r="C73">
         <v>32</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>2</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>84</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>52</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="1">
-        <v>66</v>
-      </c>
-      <c r="C73" s="1">
-        <v>32</v>
-      </c>
-      <c r="D73" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="1">
-        <v>67</v>
-      </c>
-      <c r="C74" s="1">
-        <v>33</v>
-      </c>
-      <c r="D74" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1">
-        <v>67</v>
-      </c>
-      <c r="C75" s="1">
-        <v>34</v>
-      </c>
-      <c r="D75" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" s="1">
         <v>50</v>
@@ -1194,71 +1208,113 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B78" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="1">
         <v>34</v>
       </c>
       <c r="D78" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C79" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
         <v>68</v>
+      </c>
+      <c r="C81" s="1">
+        <v>34</v>
+      </c>
+      <c r="D81" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1">
+        <v>70</v>
+      </c>
+      <c r="C82" s="1">
+        <v>36</v>
+      </c>
+      <c r="D82" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>70</v>
+      </c>
+      <c r="C83" s="1">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B85" s="1">
         <v>68</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C85" s="1">
         <v>34</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D85" s="1">
         <v>55</v>
       </c>
     </row>
